--- a/xlsx/政策_政策_智庫_intext.xlsx
+++ b/xlsx/政策_政策_智庫_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>智庫</t>
   </si>
@@ -372,312 +372,6 @@
   </si>
   <si>
     <t>United Nations Development Program</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%AE%D9%84%D9%8A%D8%A9_%D8%AA%D9%81%D9%83%D9%8A%D8%B1</t>
-  </si>
-  <si>
-    <t>خلية تفكير – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://az.wikipedia.org/wiki/Ara%C5%9Fd%C4%B1rma_m%C9%99rk%C9%99zi</t>
-  </si>
-  <si>
-    <t>Araşdırma mərkəzi – 阿塞拜疆语</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%9C%D0%BE%D0%B7%D1%8A%D1%87%D0%B5%D0%BD_%D1%82%D1%80%D1%8A%D1%81%D1%82</t>
-  </si>
-  <si>
-    <t>Мозъчен тръст – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 捷克语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/T%C3%A6nketank</t>
-  </si>
-  <si>
-    <t>Tænketank – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Denkfabrik</t>
-  </si>
-  <si>
-    <t>Denkfabrik – 德语</t>
-  </si>
-  <si>
-    <t>https://el.wikipedia.org/wiki/%CE%94%CE%B5%CE%BE%CE%B1%CE%BC%CE%B5%CE%BD%CE%AE_%CF%83%CE%BA%CE%AD%CF%88%CE%B7%CF%82</t>
-  </si>
-  <si>
-    <t>Δεξαμενή σκέψης – 希腊语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 英语</t>
-  </si>
-  <si>
-    <t>https://eo.wikipedia.org/wiki/Pensfabriko</t>
-  </si>
-  <si>
-    <t>Pensfabriko – 世界语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/M%C3%B5ttekoda</t>
-  </si>
-  <si>
-    <t>Mõttekoda – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://eu.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 巴斯克语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AF%DB%8C%D8%B4%DA%A9%D8%AF%D9%87</t>
-  </si>
-  <si>
-    <t>اندیشکده – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Ajatushautomo</t>
-  </si>
-  <si>
-    <t>Ajatushautomo – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 法语</t>
-  </si>
-  <si>
-    <t>https://gl.wikipedia.org/wiki/Laboratorio_de_ideas</t>
-  </si>
-  <si>
-    <t>Laboratorio de ideas – 加利西亚语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%A6%D7%95%D7%95%D7%AA_%D7%97%D7%A9%D7%99%D7%91%D7%94</t>
-  </si>
-  <si>
-    <t>צוות חשיבה – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%B5%E0%A4%BF%E0%A4%9A%E0%A4%BE%E0%A4%B0%E0%A4%95_%E0%A4%B8%E0%A4%AE%E0%A5%82%E0%A4%B9</t>
-  </si>
-  <si>
-    <t>विचारक समूह – 印地语</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://hu.wikipedia.org/wiki/Agytr%C3%B6szt</t>
-  </si>
-  <si>
-    <t>Agytröszt – 匈牙利语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Wadah_pemikir</t>
-  </si>
-  <si>
-    <t>Wadah pemikir – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 意大利语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E3%82%B7%E3%83%B3%E3%82%AF%E3%82%BF%E3%83%B3%E3%82%AF</t>
-  </si>
-  <si>
-    <t>シンクタンク – 日语</t>
-  </si>
-  <si>
-    <t>https://ka.wikipedia.org/wiki/%E1%83%90%E1%83%9C%E1%83%90%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98_%E1%83%98%E1%83%9C%E1%83%A1%E1%83%A2%E1%83%98%E1%83%A2%E1%83%A3%E1%83%A2%E1%83%98</t>
-  </si>
-  <si>
-    <t>ანალიტიკური ინსტიტუტი – 格鲁吉亚语</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D2%92%D1%8B%D0%BB%D1%8B%D0%BC%D0%B8_%D0%BE%D1%80%D1%82%D0%B0%D0%BB%D1%8B%D2%9B</t>
-  </si>
-  <si>
-    <t>Ғылыми орталық – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%8B%B1%ED%81%AC%ED%83%B1%ED%81%AC</t>
-  </si>
-  <si>
-    <t>싱크탱크 – 韩语</t>
-  </si>
-  <si>
-    <t>https://lb.wikipedia.org/wiki/Denkfabr%C3%A9ck</t>
-  </si>
-  <si>
-    <t>Denkfabréck – 卢森堡语</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Id%C4%97j%C5%B3_kalv%C4%97</t>
-  </si>
-  <si>
-    <t>Idėjų kalvė – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://lv.wikipedia.org/wiki/Domn%C4%ABca</t>
-  </si>
-  <si>
-    <t>Domnīca – 拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://mk.wikipedia.org/wiki/%D0%90%D0%BD%D0%B0%D0%BB%D0%B8%D1%82%D0%B8%D1%87%D0%BA%D0%B8_%D1%86%D0%B5%D0%BD%D1%82%D0%B0%D1%80</t>
-  </si>
-  <si>
-    <t>Аналитички центар – 马其顿语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Denktank</t>
-  </si>
-  <si>
-    <t>Denktank – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://nn.wikipedia.org/wiki/Tankesmie</t>
-  </si>
-  <si>
-    <t>Tankesmie – 挪威尼诺斯克语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/Tankesmie</t>
-  </si>
-  <si>
-    <t>Tankesmie – 挪威语</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 波兰语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B0%D0%BB%D0%B8%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B8%D0%B9_%D1%86%D0%B5%D0%BD%D1%82%D1%80</t>
-  </si>
-  <si>
-    <t>Аналитический центр – 俄语</t>
-  </si>
-  <si>
-    <t>https://sd.wikipedia.org/wiki/%D9%BF%D9%86%DA%AA_%D9%BD%D8%A6%D9%86%DA%AA</t>
-  </si>
-  <si>
-    <t>ٿنڪ ٽئنڪ – 信德语</t>
-  </si>
-  <si>
-    <t>https://sh.wikipedia.org/wiki/Trust_mozgova</t>
-  </si>
-  <si>
-    <t>Trust mozgova – 塞尔维亚-克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://simple.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – Simple English</t>
-  </si>
-  <si>
-    <t>https://sk.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Tankesmedja</t>
-  </si>
-  <si>
-    <t>Tankesmedja – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%AE%E0%AE%A4%E0%AE%BF%E0%AE%AF%E0%AF%81%E0%AE%B0%E0%AF%88%E0%AE%AF%E0%AE%95%E0%AE%AE%E0%AF%8D</t>
-  </si>
-  <si>
-    <t>மதியுரையகம் – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://tg.wikipedia.org/wiki/%D0%90%D0%BD%D0%B4%D0%B5%D1%88%D0%B3%D0%BE%D2%B3</t>
-  </si>
-  <si>
-    <t>Андешгоҳ – 塔吉克语</t>
-  </si>
-  <si>
-    <t>https://th.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 泰语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/D%C3%BC%C5%9F%C3%BCnce_kurulu%C5%9Fu</t>
-  </si>
-  <si>
-    <t>Düşünce kuruluşu – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%90%D0%BD%D0%B0%D0%BB%D1%96%D1%82%D0%B8%D1%87%D0%BD%D0%B8%D0%B9_%D1%86%D0%B5%D0%BD%D1%82%D1%80</t>
-  </si>
-  <si>
-    <t>Аналітичний центр – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://ur.wikipedia.org/wiki/%D9%85%D8%AD%D9%81%D9%84_%D9%81%DA%A9%D8%B1</t>
-  </si>
-  <si>
-    <t>محفل فکر – 乌尔都语</t>
-  </si>
-  <si>
-    <t>https://vi.wikipedia.org/wiki/Think_tank</t>
-  </si>
-  <si>
-    <t>Think tank – 越南语</t>
-  </si>
-  <si>
-    <t>https://zh-yue.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
-  </si>
-  <si>
-    <t>智庫 – Cantonese</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2742,1485 +2436,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>59</v>
-      </c>
-      <c r="E60" t="s">
-        <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>60</v>
-      </c>
-      <c r="E61" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>4</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>61</v>
-      </c>
-      <c r="E62" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>62</v>
-      </c>
-      <c r="E63" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>63</v>
-      </c>
-      <c r="E64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>64</v>
-      </c>
-      <c r="E65" t="s">
-        <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>4</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>65</v>
-      </c>
-      <c r="E66" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>66</v>
-      </c>
-      <c r="E67" t="s">
-        <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>4</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s">
-        <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2</v>
-      </c>
-      <c r="H68" t="s">
-        <v>4</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>68</v>
-      </c>
-      <c r="E69" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>4</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>69</v>
-      </c>
-      <c r="E70" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>70</v>
-      </c>
-      <c r="E71" t="s">
-        <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>4</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>71</v>
-      </c>
-      <c r="E72" t="s">
-        <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>72</v>
-      </c>
-      <c r="E73" t="s">
-        <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>4</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>73</v>
-      </c>
-      <c r="E74" t="s">
-        <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>74</v>
-      </c>
-      <c r="E75" t="s">
-        <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>75</v>
-      </c>
-      <c r="E76" t="s">
-        <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>77</v>
-      </c>
-      <c r="E78" t="s">
-        <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>4</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>78</v>
-      </c>
-      <c r="E79" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>4</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>79</v>
-      </c>
-      <c r="E80" t="s">
-        <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>4</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>80</v>
-      </c>
-      <c r="E81" t="s">
-        <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>81</v>
-      </c>
-      <c r="E82" t="s">
-        <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>4</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>82</v>
-      </c>
-      <c r="E83" t="s">
-        <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>83</v>
-      </c>
-      <c r="E84" t="s">
-        <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
-        <v>4</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>84</v>
-      </c>
-      <c r="E85" t="s">
-        <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
-        <v>4</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>85</v>
-      </c>
-      <c r="E86" t="s">
-        <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>4</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>86</v>
-      </c>
-      <c r="E87" t="s">
-        <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>4</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>87</v>
-      </c>
-      <c r="E88" t="s">
-        <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>4</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>88</v>
-      </c>
-      <c r="E89" t="s">
-        <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89</v>
-      </c>
-      <c r="E90" t="s">
-        <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>4</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>90</v>
-      </c>
-      <c r="E91" t="s">
-        <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>91</v>
-      </c>
-      <c r="E92" t="s">
-        <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>4</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>92</v>
-      </c>
-      <c r="E93" t="s">
-        <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
-      </c>
-      <c r="G93" t="n">
-        <v>2</v>
-      </c>
-      <c r="H93" t="s">
-        <v>4</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>94</v>
-      </c>
-      <c r="E95" t="s">
-        <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>4</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>95</v>
-      </c>
-      <c r="E96" t="s">
-        <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>4</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" t="n">
-        <v>96</v>
-      </c>
-      <c r="E97" t="s">
-        <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>4</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>97</v>
-      </c>
-      <c r="E98" t="s">
-        <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>4</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>98</v>
-      </c>
-      <c r="E99" t="s">
-        <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" t="n">
-        <v>99</v>
-      </c>
-      <c r="E100" t="s">
-        <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>100</v>
-      </c>
-      <c r="E101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>101</v>
-      </c>
-      <c r="E102" t="s">
-        <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>102</v>
-      </c>
-      <c r="E103" t="s">
-        <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
-        <v>4</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>103</v>
-      </c>
-      <c r="E104" t="s">
-        <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>4</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>104</v>
-      </c>
-      <c r="E105" t="s">
-        <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>4</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>105</v>
-      </c>
-      <c r="E106" t="s">
-        <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>4</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>106</v>
-      </c>
-      <c r="E107" t="s">
-        <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1</v>
-      </c>
-      <c r="H107" t="s">
-        <v>4</v>
-      </c>
-      <c r="I107" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>107</v>
-      </c>
-      <c r="E108" t="s">
-        <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>4</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>108</v>
-      </c>
-      <c r="E109" t="s">
-        <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>4</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>109</v>
-      </c>
-      <c r="E110" t="s">
-        <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" t="s">
-        <v>4</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
